--- a/Code/Results/Cases/Case_7_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_26/res_bus/vm_pu.xlsx
@@ -448,7 +448,7 @@
         <v>1.047784191322064</v>
       </c>
       <c r="M2">
-        <v>1.056570380924098</v>
+        <v>1.056570380924097</v>
       </c>
       <c r="N2">
         <v>1.048461382523064</v>
@@ -462,16 +462,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034053655414265</v>
+        <v>1.034053655414263</v>
       </c>
       <c r="D3">
-        <v>1.047273561280552</v>
+        <v>1.047273561280551</v>
       </c>
       <c r="E3">
-        <v>1.044130328593825</v>
+        <v>1.044130328593823</v>
       </c>
       <c r="F3">
-        <v>1.053247750899361</v>
+        <v>1.053247750899359</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,19 +480,19 @@
         <v>1.053053293987545</v>
       </c>
       <c r="J3">
-        <v>1.053657151063797</v>
+        <v>1.053657151063795</v>
       </c>
       <c r="K3">
-        <v>1.057335292679447</v>
+        <v>1.057335292679445</v>
       </c>
       <c r="L3">
-        <v>1.054228053057972</v>
+        <v>1.054228053057969</v>
       </c>
       <c r="M3">
-        <v>1.063241801593167</v>
+        <v>1.063241801593165</v>
       </c>
       <c r="N3">
-        <v>1.055153465074472</v>
+        <v>1.05515346507447</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -506,7 +506,7 @@
         <v>1.039392791298088</v>
       </c>
       <c r="D4">
-        <v>1.051474261849112</v>
+        <v>1.051474261849111</v>
       </c>
       <c r="E4">
         <v>1.048718968427017</v>
@@ -518,22 +518,22 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0545603111852</v>
+        <v>1.054560311185199</v>
       </c>
       <c r="J4">
-        <v>1.057839819205893</v>
+        <v>1.057839819205892</v>
       </c>
       <c r="K4">
         <v>1.060988730053664</v>
       </c>
       <c r="L4">
-        <v>1.058262914009403</v>
+        <v>1.058262914009402</v>
       </c>
       <c r="M4">
         <v>1.067419817817016</v>
       </c>
       <c r="N4">
-        <v>1.059342073085088</v>
+        <v>1.059342073085087</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,16 +544,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041597988152367</v>
+        <v>1.041597988152368</v>
       </c>
       <c r="D5">
-        <v>1.053209539515129</v>
+        <v>1.05320953951513</v>
       </c>
       <c r="E5">
-        <v>1.05061541176472</v>
+        <v>1.050615411764721</v>
       </c>
       <c r="F5">
-        <v>1.059927574623281</v>
+        <v>1.059927574623283</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,19 +562,19 @@
         <v>1.055179419344108</v>
       </c>
       <c r="J5">
-        <v>1.059566324940612</v>
+        <v>1.059566324940613</v>
       </c>
       <c r="K5">
-        <v>1.062495958055095</v>
+        <v>1.062495958055097</v>
       </c>
       <c r="L5">
-        <v>1.059928781958113</v>
+        <v>1.059928781958115</v>
       </c>
       <c r="M5">
-        <v>1.069144943529855</v>
+        <v>1.069144943529857</v>
       </c>
       <c r="N5">
-        <v>1.061071030655983</v>
+        <v>1.061071030655985</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -588,19 +588,19 @@
         <v>1.041966011801718</v>
       </c>
       <c r="D6">
-        <v>1.053499151807746</v>
+        <v>1.053499151807747</v>
       </c>
       <c r="E6">
         <v>1.050931976561463</v>
       </c>
       <c r="F6">
-        <v>1.060253655051346</v>
+        <v>1.060253655051347</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055282544062553</v>
+        <v>1.055282544062554</v>
       </c>
       <c r="J6">
         <v>1.059854396804755</v>
@@ -609,7 +609,7 @@
         <v>1.062747393557571</v>
       </c>
       <c r="L6">
-        <v>1.06020675783729</v>
+        <v>1.060206757837291</v>
       </c>
       <c r="M6">
         <v>1.069432816321716</v>
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039422408741275</v>
+        <v>1.039422408741274</v>
       </c>
       <c r="D7">
         <v>1.051497566967524</v>
       </c>
       <c r="E7">
-        <v>1.048744434384568</v>
+        <v>1.048744434384566</v>
       </c>
       <c r="F7">
-        <v>1.058000375525827</v>
+        <v>1.058000375525826</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054568639540826</v>
+        <v>1.054568639540825</v>
       </c>
       <c r="J7">
-        <v>1.057863011689777</v>
+        <v>1.057863011689776</v>
       </c>
       <c r="K7">
-        <v>1.061008980239569</v>
+        <v>1.061008980239568</v>
       </c>
       <c r="L7">
-        <v>1.058285290472684</v>
+        <v>1.058285290472683</v>
       </c>
       <c r="M7">
-        <v>1.067442989650271</v>
+        <v>1.06744298965027</v>
       </c>
       <c r="N7">
-        <v>1.05936529850496</v>
+        <v>1.059365298504959</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -676,7 +676,7 @@
         <v>1.039318540785696</v>
       </c>
       <c r="F8">
-        <v>1.048291710827231</v>
+        <v>1.048291710827232</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -691,13 +691,13 @@
         <v>1.053494771181754</v>
       </c>
       <c r="L8">
-        <v>1.049991007827253</v>
+        <v>1.049991007827254</v>
       </c>
       <c r="M8">
         <v>1.058854983438395</v>
       </c>
       <c r="N8">
-        <v>1.050753571114732</v>
+        <v>1.050753571114731</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007642015824431</v>
+        <v>1.007642015824435</v>
       </c>
       <c r="D9">
-        <v>1.026518216084663</v>
+        <v>1.026518216084666</v>
       </c>
       <c r="E9">
-        <v>1.021495382397135</v>
+        <v>1.021495382397138</v>
       </c>
       <c r="F9">
-        <v>1.029936047064137</v>
+        <v>1.029936047064141</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045458385804577</v>
+        <v>1.045458385804579</v>
       </c>
       <c r="J9">
-        <v>1.03292777120558</v>
+        <v>1.032927771205584</v>
       </c>
       <c r="K9">
-        <v>1.039195221423567</v>
+        <v>1.03919522142357</v>
       </c>
       <c r="L9">
-        <v>1.034249079610551</v>
+        <v>1.034249079610554</v>
       </c>
       <c r="M9">
-        <v>1.042561411275699</v>
+        <v>1.042561411275702</v>
       </c>
       <c r="N9">
-        <v>1.034394647119164</v>
+        <v>1.034394647119167</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,13 +749,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.992572031847768</v>
+        <v>0.9925720318477681</v>
       </c>
       <c r="D10">
         <v>1.014703537537368</v>
       </c>
       <c r="E10">
-        <v>1.008631004029219</v>
+        <v>1.008631004029218</v>
       </c>
       <c r="F10">
         <v>1.016689138013206</v>
@@ -790,7 +790,7 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9857060530647382</v>
+        <v>0.9857060530647374</v>
       </c>
       <c r="D11">
         <v>1.00932955970139</v>
@@ -799,7 +799,7 @@
         <v>1.0027828936746</v>
       </c>
       <c r="F11">
-        <v>1.010667651532043</v>
+        <v>1.010667651532042</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -811,10 +811,10 @@
         <v>1.015685808794647</v>
       </c>
       <c r="K11">
-        <v>1.024077653097613</v>
+        <v>1.024077653097612</v>
       </c>
       <c r="L11">
-        <v>1.017652518832526</v>
+        <v>1.017652518832525</v>
       </c>
       <c r="M11">
         <v>1.025391157101609</v>
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9830988506019478</v>
+        <v>0.9830988506019488</v>
       </c>
       <c r="D12">
-        <v>1.007290528820317</v>
+        <v>1.007290528820318</v>
       </c>
       <c r="E12">
-        <v>1.000564400698317</v>
+        <v>1.000564400698318</v>
       </c>
       <c r="F12">
-        <v>1.008383475060954</v>
+        <v>1.008383475060955</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038247569314562</v>
+        <v>1.038247569314563</v>
       </c>
       <c r="J12">
-        <v>1.01363613024746</v>
+        <v>1.013636130247461</v>
       </c>
       <c r="K12">
-        <v>1.022279374128948</v>
+        <v>1.022279374128949</v>
       </c>
       <c r="L12">
-        <v>1.015680795664061</v>
+        <v>1.015680795664062</v>
       </c>
       <c r="M12">
-        <v>1.02335180431986</v>
+        <v>1.023351804319861</v>
       </c>
       <c r="N12">
-        <v>1.015075609818101</v>
+        <v>1.015075609818102</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,16 +872,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9836607793951967</v>
+        <v>0.9836607793951989</v>
       </c>
       <c r="D13">
-        <v>1.007729921975799</v>
+        <v>1.007729921975801</v>
       </c>
       <c r="E13">
-        <v>1.001042447768897</v>
+        <v>1.001042447768899</v>
       </c>
       <c r="F13">
-        <v>1.008875671710938</v>
+        <v>1.008875671710941</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -890,19 +890,19 @@
         <v>1.038413872287925</v>
       </c>
       <c r="J13">
-        <v>1.014077894530423</v>
+        <v>1.014077894530425</v>
       </c>
       <c r="K13">
-        <v>1.022666970616527</v>
+        <v>1.022666970616529</v>
       </c>
       <c r="L13">
-        <v>1.016105736454449</v>
+        <v>1.016105736454451</v>
       </c>
       <c r="M13">
-        <v>1.023791311072158</v>
+        <v>1.023791311072161</v>
       </c>
       <c r="N13">
-        <v>1.015518001457017</v>
+        <v>1.015518001457019</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9854917372601433</v>
+        <v>0.9854917372601476</v>
       </c>
       <c r="D14">
-        <v>1.009161913880616</v>
+        <v>1.00916191388062</v>
       </c>
       <c r="E14">
-        <v>1.002600484322154</v>
+        <v>1.002600484322158</v>
       </c>
       <c r="F14">
-        <v>1.01047983971903</v>
+        <v>1.010479839719035</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038955406384729</v>
+        <v>1.038955406384731</v>
       </c>
       <c r="J14">
-        <v>1.015517321775085</v>
+        <v>1.015517321775088</v>
       </c>
       <c r="K14">
-        <v>1.023929838828557</v>
+        <v>1.023929838828561</v>
       </c>
       <c r="L14">
-        <v>1.017490430106221</v>
+        <v>1.017490430106225</v>
       </c>
       <c r="M14">
-        <v>1.025223504575769</v>
+        <v>1.025223504575774</v>
       </c>
       <c r="N14">
-        <v>1.01695947285347</v>
+        <v>1.016959472853474</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9866121288734496</v>
+        <v>0.9866121288734485</v>
       </c>
       <c r="D15">
-        <v>1.010038393454582</v>
+        <v>1.010038393454581</v>
       </c>
       <c r="E15">
-        <v>1.003554167357944</v>
+        <v>1.003554167357943</v>
       </c>
       <c r="F15">
-        <v>1.01146177180084</v>
+        <v>1.011461771800839</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03928651805156</v>
+        <v>1.039286518051559</v>
       </c>
       <c r="J15">
-        <v>1.016398131389224</v>
+        <v>1.016398131389223</v>
       </c>
       <c r="K15">
-        <v>1.024702561302817</v>
+        <v>1.024702561302816</v>
       </c>
       <c r="L15">
-        <v>1.018337810345493</v>
+        <v>1.018337810345492</v>
       </c>
       <c r="M15">
-        <v>1.026099979998745</v>
+        <v>1.026099979998744</v>
       </c>
       <c r="N15">
-        <v>1.017841533318292</v>
+        <v>1.017841533318291</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9930200615721895</v>
+        <v>0.9930200615721874</v>
       </c>
       <c r="D16">
-        <v>1.015054414822156</v>
+        <v>1.015054414822155</v>
       </c>
       <c r="E16">
-        <v>1.009012901919996</v>
+        <v>1.009012901919994</v>
       </c>
       <c r="F16">
-        <v>1.017082369323105</v>
+        <v>1.017082369323103</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041176209168264</v>
+        <v>1.041176209168263</v>
       </c>
       <c r="J16">
-        <v>1.021435693761671</v>
+        <v>1.021435693761669</v>
       </c>
       <c r="K16">
-        <v>1.029121179363262</v>
+        <v>1.02912117936326</v>
       </c>
       <c r="L16">
-        <v>1.023185104939559</v>
+        <v>1.023185104939557</v>
       </c>
       <c r="M16">
-        <v>1.031114104442194</v>
+        <v>1.031114104442192</v>
       </c>
       <c r="N16">
-        <v>1.022886249607124</v>
+        <v>1.022886249607121</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,13 +1036,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9969446465727216</v>
+        <v>0.9969446465727222</v>
       </c>
       <c r="D17">
         <v>1.01812900472475</v>
       </c>
       <c r="E17">
-        <v>1.012359680161751</v>
+        <v>1.012359680161752</v>
       </c>
       <c r="F17">
         <v>1.020528528052034</v>
@@ -1054,13 +1054,13 @@
         <v>1.042329892015099</v>
       </c>
       <c r="J17">
-        <v>1.024520745962641</v>
+        <v>1.024520745962642</v>
       </c>
       <c r="K17">
         <v>1.031826461992627</v>
       </c>
       <c r="L17">
-        <v>1.026154415188845</v>
+        <v>1.026154415188846</v>
       </c>
       <c r="M17">
         <v>1.034185943575536</v>
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9992013584551469</v>
+        <v>0.9992013584551447</v>
       </c>
       <c r="D18">
-        <v>1.019897762142058</v>
+        <v>1.019897762142056</v>
       </c>
       <c r="E18">
-        <v>1.014285339089036</v>
+        <v>1.014285339089034</v>
       </c>
       <c r="F18">
-        <v>1.022511416427897</v>
+        <v>1.022511416427894</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042991916026376</v>
+        <v>1.042991916026375</v>
       </c>
       <c r="J18">
-        <v>1.02629457149565</v>
+        <v>1.026294571495648</v>
       </c>
       <c r="K18">
-        <v>1.033381651356442</v>
+        <v>1.03338165135644</v>
       </c>
       <c r="L18">
-        <v>1.027861962202484</v>
+        <v>1.027861962202481</v>
       </c>
       <c r="M18">
-        <v>1.035952566725289</v>
+        <v>1.035952566725287</v>
       </c>
       <c r="N18">
-        <v>1.027752027504806</v>
+        <v>1.027752027504804</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,10 +1118,10 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9999654970938412</v>
+        <v>0.9999654970938409</v>
       </c>
       <c r="D19">
-        <v>1.020496805374305</v>
+        <v>1.020496805374304</v>
       </c>
       <c r="E19">
         <v>1.014937577185367</v>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043215846287728</v>
+        <v>1.043215846287727</v>
       </c>
       <c r="J19">
         <v>1.026895173109963</v>
@@ -1145,10 +1145,10 @@
         <v>1.028440167390505</v>
       </c>
       <c r="M19">
-        <v>1.036550795264431</v>
+        <v>1.03655079526443</v>
       </c>
       <c r="N19">
-        <v>1.028353482042302</v>
+        <v>1.028353482042301</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,7 +1159,7 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9965269687880577</v>
+        <v>0.9965269687880582</v>
       </c>
       <c r="D20">
         <v>1.017801702458576</v>
@@ -1168,13 +1168,13 @@
         <v>1.012003369898675</v>
       </c>
       <c r="F20">
-        <v>1.02016163230745</v>
+        <v>1.020161632307451</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042207251255334</v>
+        <v>1.042207251255333</v>
       </c>
       <c r="J20">
         <v>1.024192429566354</v>
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9849541860706151</v>
+        <v>0.9849541860706161</v>
       </c>
       <c r="D21">
         <v>1.008741448303913</v>
       </c>
       <c r="E21">
-        <v>1.002142997722488</v>
+        <v>1.002142997722489</v>
       </c>
       <c r="F21">
-        <v>1.010008805063266</v>
+        <v>1.010008805063267</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03879647167939</v>
+        <v>1.038796471679391</v>
       </c>
       <c r="J21">
-        <v>1.015094719420323</v>
+        <v>1.015094719420324</v>
       </c>
       <c r="K21">
-        <v>1.023559082404711</v>
+        <v>1.023559082404712</v>
       </c>
       <c r="L21">
-        <v>1.017083883777145</v>
+        <v>1.017083883777146</v>
       </c>
       <c r="M21">
-        <v>1.02480300659159</v>
+        <v>1.024803006591591</v>
       </c>
       <c r="N21">
-        <v>1.016536270354892</v>
+        <v>1.016536270354893</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9773453518318983</v>
+        <v>0.9773453518318993</v>
       </c>
       <c r="D22">
-        <v>1.002794195899076</v>
+        <v>1.002794195899077</v>
       </c>
       <c r="E22">
-        <v>0.9956730581873398</v>
+        <v>0.9956730581873403</v>
       </c>
       <c r="F22">
-        <v>1.00334748505825</v>
+        <v>1.003347485058251</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,7 +1259,7 @@
         <v>1.036542165317065</v>
       </c>
       <c r="J22">
-        <v>1.009113119664365</v>
+        <v>1.009113119664366</v>
       </c>
       <c r="K22">
         <v>1.018310501708539</v>
@@ -1268,10 +1268,10 @@
         <v>1.011330722750461</v>
       </c>
       <c r="M22">
-        <v>1.018852918020874</v>
+        <v>1.018852918020875</v>
       </c>
       <c r="N22">
-        <v>1.01054617604118</v>
+        <v>1.010546176041181</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,16 +1282,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9814126128113806</v>
+        <v>0.9814126128113815</v>
       </c>
       <c r="D23">
-        <v>1.00597225773562</v>
+        <v>1.005972257735621</v>
       </c>
       <c r="E23">
-        <v>0.9991302184235661</v>
+        <v>0.9991302184235669</v>
       </c>
       <c r="F23">
-        <v>1.00690685634938</v>
+        <v>1.006906856349381</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1300,10 +1300,10 @@
         <v>1.037748242037235</v>
       </c>
       <c r="J23">
-        <v>1.012310492967028</v>
+        <v>1.012310492967029</v>
       </c>
       <c r="K23">
-        <v>1.021116232197592</v>
+        <v>1.021116232197593</v>
       </c>
       <c r="L23">
         <v>1.014405714055579</v>
@@ -1312,7 +1312,7 @@
         <v>1.022033046925126</v>
       </c>
       <c r="N23">
-        <v>1.013748089980678</v>
+        <v>1.013748089980679</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9967157992042999</v>
+        <v>0.9967157992043023</v>
       </c>
       <c r="D24">
-        <v>1.017949671978351</v>
+        <v>1.017949671978353</v>
       </c>
       <c r="E24">
-        <v>1.012164452606044</v>
+        <v>1.012164452606046</v>
       </c>
       <c r="F24">
-        <v>1.020327500408432</v>
+        <v>1.020327500408435</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042262700897545</v>
+        <v>1.042262700897546</v>
       </c>
       <c r="J24">
-        <v>1.024340860508971</v>
+        <v>1.024340860508973</v>
       </c>
       <c r="K24">
-        <v>1.031668736930412</v>
+        <v>1.031668736930414</v>
       </c>
       <c r="L24">
-        <v>1.025981262147018</v>
+        <v>1.02598126214702</v>
       </c>
       <c r="M24">
-        <v>1.034006804654559</v>
+        <v>1.034006804654562</v>
       </c>
       <c r="N24">
-        <v>1.025795542024432</v>
+        <v>1.025795542024435</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1367,10 +1367,10 @@
         <v>1.013215511171292</v>
       </c>
       <c r="D25">
-        <v>1.03089364428306</v>
+        <v>1.030893644283061</v>
       </c>
       <c r="E25">
-        <v>1.026262729272872</v>
+        <v>1.026262729272873</v>
       </c>
       <c r="F25">
         <v>1.03484554572575</v>

--- a/Code/Results/Cases/Case_7_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025531568811069</v>
+        <v>1.01076092886922</v>
       </c>
       <c r="D2">
-        <v>1.040571330329846</v>
+        <v>1.028784013228869</v>
       </c>
       <c r="E2">
-        <v>1.036814984972527</v>
+        <v>1.025187484433465</v>
       </c>
       <c r="F2">
-        <v>1.045713182705007</v>
+        <v>1.035169826689331</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050626211281976</v>
+        <v>1.046443381167707</v>
       </c>
       <c r="J2">
-        <v>1.046974558560248</v>
+        <v>1.03262447802942</v>
       </c>
       <c r="K2">
-        <v>1.051492961300741</v>
+        <v>1.039856392967944</v>
       </c>
       <c r="L2">
-        <v>1.047784191322064</v>
+        <v>1.03630672505001</v>
       </c>
       <c r="M2">
-        <v>1.056570380924097</v>
+        <v>1.046160005363963</v>
       </c>
       <c r="N2">
-        <v>1.048461382523064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014254558813189</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045104924001415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034053655414263</v>
+        <v>1.015477286525927</v>
       </c>
       <c r="D3">
-        <v>1.047273561280551</v>
+        <v>1.032105312703831</v>
       </c>
       <c r="E3">
-        <v>1.044130328593823</v>
+        <v>1.02889672065051</v>
       </c>
       <c r="F3">
-        <v>1.053247750899359</v>
+        <v>1.038626120460261</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053053293987545</v>
+        <v>1.047397665485007</v>
       </c>
       <c r="J3">
-        <v>1.053657151063795</v>
+        <v>1.035554736783543</v>
       </c>
       <c r="K3">
-        <v>1.057335292679445</v>
+        <v>1.042343241017704</v>
       </c>
       <c r="L3">
-        <v>1.054228053057969</v>
+        <v>1.039172745569458</v>
       </c>
       <c r="M3">
-        <v>1.063241801593165</v>
+        <v>1.048787522196962</v>
       </c>
       <c r="N3">
-        <v>1.05515346507447</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.0152810046978</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047184411287883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039392791298088</v>
+        <v>1.018466887532604</v>
       </c>
       <c r="D4">
-        <v>1.051474261849111</v>
+        <v>1.034212670664726</v>
       </c>
       <c r="E4">
-        <v>1.048718968427017</v>
+        <v>1.031253851402045</v>
       </c>
       <c r="F4">
-        <v>1.057974144545052</v>
+        <v>1.040823476586441</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054560311185199</v>
+        <v>1.047991464925562</v>
       </c>
       <c r="J4">
-        <v>1.057839819205892</v>
+        <v>1.037409720955315</v>
       </c>
       <c r="K4">
-        <v>1.060988730053664</v>
+        <v>1.043914995614171</v>
       </c>
       <c r="L4">
-        <v>1.058262914009402</v>
+        <v>1.040989153893758</v>
       </c>
       <c r="M4">
-        <v>1.067419817817016</v>
+        <v>1.050452952707169</v>
       </c>
       <c r="N4">
-        <v>1.059342073085087</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015930026638331</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.048502474622532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041597988152368</v>
+        <v>1.019709354343747</v>
       </c>
       <c r="D5">
-        <v>1.05320953951513</v>
+        <v>1.035088909245814</v>
       </c>
       <c r="E5">
-        <v>1.050615411764721</v>
+        <v>1.03223483584017</v>
       </c>
       <c r="F5">
-        <v>1.059927574623283</v>
+        <v>1.041738186863661</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055179419344108</v>
+        <v>1.04823553561326</v>
       </c>
       <c r="J5">
-        <v>1.059566324940613</v>
+        <v>1.038180017180317</v>
       </c>
       <c r="K5">
-        <v>1.062495958055097</v>
+        <v>1.044567052825718</v>
       </c>
       <c r="L5">
-        <v>1.059928781958115</v>
+        <v>1.041743929600361</v>
       </c>
       <c r="M5">
-        <v>1.069144943529857</v>
+        <v>1.051145029645027</v>
       </c>
       <c r="N5">
-        <v>1.061071030655985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016199347553933</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.04905020092096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041966011801718</v>
+        <v>1.019917142711451</v>
       </c>
       <c r="D6">
-        <v>1.053499151807747</v>
+        <v>1.035235473490738</v>
       </c>
       <c r="E6">
-        <v>1.050931976561463</v>
+        <v>1.032398973344572</v>
       </c>
       <c r="F6">
-        <v>1.060253655051347</v>
+        <v>1.041891248075375</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055282544062554</v>
+        <v>1.048276192998267</v>
       </c>
       <c r="J6">
-        <v>1.059854396804755</v>
+        <v>1.038308802313332</v>
       </c>
       <c r="K6">
-        <v>1.062747393557571</v>
+        <v>1.044676032358545</v>
       </c>
       <c r="L6">
-        <v>1.060206757837291</v>
+        <v>1.041870149091925</v>
       </c>
       <c r="M6">
-        <v>1.069432816321716</v>
+        <v>1.05126076619033</v>
       </c>
       <c r="N6">
-        <v>1.061359511615216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016244363679915</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049141797561181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039422408741274</v>
+        <v>1.018483545184294</v>
       </c>
       <c r="D7">
-        <v>1.051497566967524</v>
+        <v>1.034224416714591</v>
       </c>
       <c r="E7">
-        <v>1.048744434384566</v>
+        <v>1.031266998035621</v>
       </c>
       <c r="F7">
-        <v>1.058000375525826</v>
+        <v>1.040835734192718</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054568639540825</v>
+        <v>1.047994747927736</v>
       </c>
       <c r="J7">
-        <v>1.057863011689776</v>
+        <v>1.037420050789193</v>
       </c>
       <c r="K7">
-        <v>1.061008980239568</v>
+        <v>1.043923742335281</v>
       </c>
       <c r="L7">
-        <v>1.058285290472683</v>
+        <v>1.040999273628477</v>
       </c>
       <c r="M7">
-        <v>1.06744298965027</v>
+        <v>1.050462231661468</v>
       </c>
       <c r="N7">
-        <v>1.059365298504959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015933639049779</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048509818212331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02844955655946</v>
+        <v>1.012368049431399</v>
       </c>
       <c r="D8">
-        <v>1.042865749241688</v>
+        <v>1.029915290168014</v>
       </c>
       <c r="E8">
-        <v>1.039318540785696</v>
+        <v>1.026450149662072</v>
       </c>
       <c r="F8">
-        <v>1.048291710827232</v>
+        <v>1.036346178844759</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051460072063655</v>
+        <v>1.04677085722375</v>
       </c>
       <c r="J8">
-        <v>1.049263496597358</v>
+        <v>1.03362346444387</v>
       </c>
       <c r="K8">
-        <v>1.053494771181754</v>
+        <v>1.040704731186277</v>
       </c>
       <c r="L8">
-        <v>1.049991007827254</v>
+        <v>1.037283370717742</v>
       </c>
       <c r="M8">
-        <v>1.058854983438395</v>
+        <v>1.047055335580969</v>
       </c>
       <c r="N8">
-        <v>1.050753571114731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014604651667198</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045813513006546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007642015824435</v>
+        <v>1.001090231690258</v>
       </c>
       <c r="D9">
-        <v>1.026518216084666</v>
+        <v>1.021988154006585</v>
       </c>
       <c r="E9">
-        <v>1.021495382397138</v>
+        <v>1.017616879487529</v>
       </c>
       <c r="F9">
-        <v>1.029936047064141</v>
+        <v>1.0281212749919</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045458385804579</v>
+        <v>1.044427650402107</v>
       </c>
       <c r="J9">
-        <v>1.032927771205584</v>
+        <v>1.026604549719459</v>
       </c>
       <c r="K9">
-        <v>1.03919522142357</v>
+        <v>1.034734284709232</v>
       </c>
       <c r="L9">
-        <v>1.034249079610554</v>
+        <v>1.030430457963552</v>
       </c>
       <c r="M9">
-        <v>1.042561411275702</v>
+        <v>1.040774004730237</v>
       </c>
       <c r="N9">
-        <v>1.034394647119167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012141929701067</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.040842280167179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9925720318477681</v>
+        <v>0.9932967721524455</v>
       </c>
       <c r="D10">
-        <v>1.014703537537368</v>
+        <v>1.016551357765272</v>
       </c>
       <c r="E10">
-        <v>1.008631004029218</v>
+        <v>1.011576612630076</v>
       </c>
       <c r="F10">
-        <v>1.016689138013206</v>
+        <v>1.022535581164724</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041044320901807</v>
+        <v>1.042775868085061</v>
       </c>
       <c r="J10">
-        <v>1.021083489639429</v>
+        <v>1.021778891708934</v>
       </c>
       <c r="K10">
-        <v>1.028812294680478</v>
+        <v>1.030628067339772</v>
       </c>
       <c r="L10">
-        <v>1.022846152257892</v>
+        <v>1.025739946966488</v>
       </c>
       <c r="M10">
-        <v>1.030763464040961</v>
+        <v>1.036509530375932</v>
       </c>
       <c r="N10">
-        <v>1.02253354531463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010454790653078</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.037518726663955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9857060530647374</v>
+        <v>0.990648097498219</v>
       </c>
       <c r="D11">
-        <v>1.00932955970139</v>
+        <v>1.014904949423183</v>
       </c>
       <c r="E11">
-        <v>1.0027828936746</v>
+        <v>1.009753660032121</v>
       </c>
       <c r="F11">
-        <v>1.010667651532042</v>
+        <v>1.021110438295446</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039018759146282</v>
+        <v>1.042386547259151</v>
       </c>
       <c r="J11">
-        <v>1.015685808794647</v>
+        <v>1.020415168990188</v>
       </c>
       <c r="K11">
-        <v>1.024077653097612</v>
+        <v>1.029551149806923</v>
       </c>
       <c r="L11">
-        <v>1.017652518832525</v>
+        <v>1.024493951271626</v>
       </c>
       <c r="M11">
-        <v>1.025391157101609</v>
+        <v>1.03564492920755</v>
       </c>
       <c r="N11">
-        <v>1.017128199143926</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010060371414858</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037271308711501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9830988506019488</v>
+        <v>0.9899843037244084</v>
       </c>
       <c r="D12">
-        <v>1.007290528820318</v>
+        <v>1.014597657847225</v>
       </c>
       <c r="E12">
-        <v>1.000564400698318</v>
+        <v>1.009411266078839</v>
       </c>
       <c r="F12">
-        <v>1.008383475060955</v>
+        <v>1.020984858225495</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038247569314563</v>
+        <v>1.042384589470136</v>
       </c>
       <c r="J12">
-        <v>1.013636130247461</v>
+        <v>1.02021867880936</v>
       </c>
       <c r="K12">
-        <v>1.022279374128949</v>
+        <v>1.029450433514679</v>
       </c>
       <c r="L12">
-        <v>1.015680795664062</v>
+        <v>1.02436035524533</v>
       </c>
       <c r="M12">
-        <v>1.023351804319861</v>
+        <v>1.035720769886709</v>
       </c>
       <c r="N12">
-        <v>1.015075609818102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010061357111535</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037658066971417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9836607793951989</v>
+        <v>0.9908075286331127</v>
       </c>
       <c r="D13">
-        <v>1.007729921975801</v>
+        <v>1.015302667351716</v>
       </c>
       <c r="E13">
-        <v>1.001042447768899</v>
+        <v>1.010188092723104</v>
       </c>
       <c r="F13">
-        <v>1.008875671710941</v>
+        <v>1.021860669569135</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038413872287925</v>
+        <v>1.042685606422634</v>
       </c>
       <c r="J13">
-        <v>1.014077894530425</v>
+        <v>1.02091202582083</v>
       </c>
       <c r="K13">
-        <v>1.022666970616529</v>
+        <v>1.030099379663607</v>
       </c>
       <c r="L13">
-        <v>1.016105736454451</v>
+        <v>1.025079286258746</v>
       </c>
       <c r="M13">
-        <v>1.023791311072161</v>
+        <v>1.036538035261195</v>
       </c>
       <c r="N13">
-        <v>1.015518001457019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.0103676417903</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038581140769158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9854917372601476</v>
+        <v>0.9920534456817851</v>
       </c>
       <c r="D14">
-        <v>1.00916191388062</v>
+        <v>1.016251283202001</v>
       </c>
       <c r="E14">
-        <v>1.002600484322158</v>
+        <v>1.011235057146724</v>
       </c>
       <c r="F14">
-        <v>1.010479839719035</v>
+        <v>1.022924015536042</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038955406384731</v>
+        <v>1.043031627988873</v>
       </c>
       <c r="J14">
-        <v>1.015517321775088</v>
+        <v>1.021796720921712</v>
       </c>
       <c r="K14">
-        <v>1.023929838828561</v>
+        <v>1.030889672404879</v>
       </c>
       <c r="L14">
-        <v>1.017490430106225</v>
+        <v>1.025964857245068</v>
       </c>
       <c r="M14">
-        <v>1.025223504575774</v>
+        <v>1.037442610755891</v>
       </c>
       <c r="N14">
-        <v>1.016959472853474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.0107186706327</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039469573541538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9866121288734485</v>
+        <v>0.992682937155804</v>
       </c>
       <c r="D15">
-        <v>1.010038393454581</v>
+        <v>1.01670647162139</v>
       </c>
       <c r="E15">
-        <v>1.003554167357943</v>
+        <v>1.01173884219753</v>
       </c>
       <c r="F15">
-        <v>1.011461771800839</v>
+        <v>1.023410817439239</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039286518051559</v>
+        <v>1.043183654597601</v>
       </c>
       <c r="J15">
-        <v>1.016398131389223</v>
+        <v>1.022210362064636</v>
       </c>
       <c r="K15">
-        <v>1.024702561302816</v>
+        <v>1.031249841801639</v>
       </c>
       <c r="L15">
-        <v>1.018337810345492</v>
+        <v>1.026372008221851</v>
       </c>
       <c r="M15">
-        <v>1.026099979998744</v>
+        <v>1.037834790870607</v>
       </c>
       <c r="N15">
-        <v>1.017841533318291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010872109779582</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.03981709469323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9930200615721874</v>
+        <v>0.9958260535407586</v>
       </c>
       <c r="D16">
-        <v>1.015054414822155</v>
+        <v>1.018873804978544</v>
       </c>
       <c r="E16">
-        <v>1.009012901919994</v>
+        <v>1.01414796481834</v>
       </c>
       <c r="F16">
-        <v>1.017082369323103</v>
+        <v>1.025628194402363</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041176209168263</v>
+        <v>1.043838611927023</v>
       </c>
       <c r="J16">
-        <v>1.021435693761669</v>
+        <v>1.02412894030528</v>
       </c>
       <c r="K16">
-        <v>1.02912117936326</v>
+        <v>1.032874746051105</v>
       </c>
       <c r="L16">
-        <v>1.023185104939557</v>
+        <v>1.028230445355283</v>
       </c>
       <c r="M16">
-        <v>1.031114104442192</v>
+        <v>1.039514278189676</v>
       </c>
       <c r="N16">
-        <v>1.022886249607121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011529273870689</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041105848626288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9969446465727222</v>
+        <v>0.9975833155882532</v>
       </c>
       <c r="D17">
-        <v>1.01812900472475</v>
+        <v>1.020038509183206</v>
       </c>
       <c r="E17">
-        <v>1.012359680161752</v>
+        <v>1.015446894856414</v>
       </c>
       <c r="F17">
-        <v>1.020528528052034</v>
+        <v>1.026767534686213</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042329892015099</v>
+        <v>1.044156350526514</v>
       </c>
       <c r="J17">
-        <v>1.024520745962642</v>
+        <v>1.025134681240057</v>
       </c>
       <c r="K17">
-        <v>1.031826461992627</v>
+        <v>1.033704082117365</v>
       </c>
       <c r="L17">
-        <v>1.026154415188846</v>
+        <v>1.029189398386746</v>
       </c>
       <c r="M17">
-        <v>1.034185943575536</v>
+        <v>1.040321963718398</v>
       </c>
       <c r="N17">
-        <v>1.02597568293608</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011848392426019</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041615287833187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9992013584551447</v>
+        <v>0.9983066331894906</v>
       </c>
       <c r="D18">
-        <v>1.019897762142056</v>
+        <v>1.020435825816801</v>
       </c>
       <c r="E18">
-        <v>1.014285339089034</v>
+        <v>1.015893708080308</v>
       </c>
       <c r="F18">
-        <v>1.022511416427894</v>
+        <v>1.027052806505588</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042991916026375</v>
+        <v>1.044208747860418</v>
       </c>
       <c r="J18">
-        <v>1.026294571495648</v>
+        <v>1.025433766878803</v>
       </c>
       <c r="K18">
-        <v>1.03338165135644</v>
+        <v>1.033910893514565</v>
       </c>
       <c r="L18">
-        <v>1.027861962202481</v>
+        <v>1.029443621320752</v>
       </c>
       <c r="M18">
-        <v>1.035952566725287</v>
+        <v>1.040420359115256</v>
       </c>
       <c r="N18">
-        <v>1.027752027504804</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011900215992411</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041455521035967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9999654970938409</v>
+        <v>0.9981025778952964</v>
       </c>
       <c r="D19">
-        <v>1.020496805374304</v>
+        <v>1.020147299182006</v>
       </c>
       <c r="E19">
-        <v>1.014937577185367</v>
+        <v>1.015575241534071</v>
       </c>
       <c r="F19">
-        <v>1.023183046594154</v>
+        <v>1.026569035753033</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043215846287727</v>
+        <v>1.044028223686529</v>
       </c>
       <c r="J19">
-        <v>1.026895173109963</v>
+        <v>1.025102412009373</v>
       </c>
       <c r="K19">
-        <v>1.033908175772001</v>
+        <v>1.033564366894449</v>
       </c>
       <c r="L19">
-        <v>1.028440167390505</v>
+        <v>1.029067303243943</v>
       </c>
       <c r="M19">
-        <v>1.03655079526443</v>
+        <v>1.039882216691585</v>
       </c>
       <c r="N19">
-        <v>1.028353482042301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01171839205913</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040704681366894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9965269687880582</v>
+        <v>0.9953233764730887</v>
       </c>
       <c r="D20">
-        <v>1.017801702458576</v>
+        <v>1.017964669360948</v>
       </c>
       <c r="E20">
-        <v>1.012003369898675</v>
+        <v>1.013145680611839</v>
       </c>
       <c r="F20">
-        <v>1.020161632307451</v>
+        <v>1.023987788365722</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042207251255333</v>
+        <v>1.043210209241537</v>
       </c>
       <c r="J20">
-        <v>1.024192429566354</v>
+        <v>1.023035772091101</v>
       </c>
       <c r="K20">
-        <v>1.031538589856995</v>
+        <v>1.031698819541635</v>
       </c>
       <c r="L20">
-        <v>1.02583838792468</v>
+        <v>1.026961251533635</v>
       </c>
       <c r="M20">
-        <v>1.033858991940488</v>
+        <v>1.037621559906103</v>
       </c>
       <c r="N20">
-        <v>1.025646900292852</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010894815760023</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038388220783961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9849541860706161</v>
+        <v>0.9892992618432591</v>
       </c>
       <c r="D21">
-        <v>1.008741448303913</v>
+        <v>1.013733072303084</v>
       </c>
       <c r="E21">
-        <v>1.002142997722489</v>
+        <v>1.008448767320518</v>
       </c>
       <c r="F21">
-        <v>1.010008805063267</v>
+        <v>1.019595940709069</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038796471679391</v>
+        <v>1.041881138938931</v>
       </c>
       <c r="J21">
-        <v>1.015094719420324</v>
+        <v>1.019251290931039</v>
       </c>
       <c r="K21">
-        <v>1.023559082404712</v>
+        <v>1.028458856075404</v>
       </c>
       <c r="L21">
-        <v>1.017083883777146</v>
+        <v>1.023271823811599</v>
       </c>
       <c r="M21">
-        <v>1.024803006591591</v>
+        <v>1.034215335168805</v>
       </c>
       <c r="N21">
-        <v>1.016536270354893</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009555951627527</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035651516633259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9773453518318993</v>
+        <v>0.9854702390900616</v>
       </c>
       <c r="D22">
-        <v>1.002794195899077</v>
+        <v>1.01106053676128</v>
       </c>
       <c r="E22">
-        <v>0.9956730581873403</v>
+        <v>1.005486032645865</v>
       </c>
       <c r="F22">
-        <v>1.003347485058251</v>
+        <v>1.016843443118694</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036542165317065</v>
+        <v>1.041036743961083</v>
       </c>
       <c r="J22">
-        <v>1.009113119664366</v>
+        <v>1.016861675104777</v>
       </c>
       <c r="K22">
-        <v>1.018310501708539</v>
+        <v>1.026416021123439</v>
       </c>
       <c r="L22">
-        <v>1.011330722750461</v>
+        <v>1.020949587969147</v>
       </c>
       <c r="M22">
-        <v>1.018852918020875</v>
+        <v>1.032088453324885</v>
       </c>
       <c r="N22">
-        <v>1.010546176041181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008714610517428</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.033968218828757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9814126128113815</v>
+        <v>0.9875089523546606</v>
       </c>
       <c r="D23">
-        <v>1.005972257735621</v>
+        <v>1.012482961257769</v>
       </c>
       <c r="E23">
-        <v>0.9991302184235669</v>
+        <v>1.007062618783524</v>
       </c>
       <c r="F23">
-        <v>1.006906856349381</v>
+        <v>1.018307999034637</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037748242037235</v>
+        <v>1.041487292313003</v>
       </c>
       <c r="J23">
-        <v>1.012310492967029</v>
+        <v>1.018134055348961</v>
       </c>
       <c r="K23">
-        <v>1.021116232197593</v>
+        <v>1.027503938420107</v>
       </c>
       <c r="L23">
-        <v>1.014405714055579</v>
+        <v>1.022185849650761</v>
       </c>
       <c r="M23">
-        <v>1.022033046925126</v>
+        <v>1.033220669567799</v>
       </c>
       <c r="N23">
-        <v>1.013748089980679</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009162642762198</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034864299720095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9967157992043023</v>
+        <v>0.9953435165046509</v>
       </c>
       <c r="D24">
-        <v>1.017949671978353</v>
+        <v>1.017960195867011</v>
       </c>
       <c r="E24">
-        <v>1.012164452606046</v>
+        <v>1.013140026365871</v>
       </c>
       <c r="F24">
-        <v>1.020327500408435</v>
+        <v>1.023956834103142</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042262700897546</v>
+        <v>1.043197390996338</v>
       </c>
       <c r="J24">
-        <v>1.024340860508973</v>
+        <v>1.023021999759186</v>
       </c>
       <c r="K24">
-        <v>1.031668736930414</v>
+        <v>1.031679084317057</v>
       </c>
       <c r="L24">
-        <v>1.02598126214702</v>
+        <v>1.026940252018101</v>
       </c>
       <c r="M24">
-        <v>1.034006804654562</v>
+        <v>1.037575908856795</v>
       </c>
       <c r="N24">
-        <v>1.025795542024435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010882652901064</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.03831119845855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013215511171292</v>
+        <v>1.004068962149889</v>
       </c>
       <c r="D25">
-        <v>1.030893644283061</v>
+        <v>1.024079165566688</v>
       </c>
       <c r="E25">
-        <v>1.026262729272873</v>
+        <v>1.019943786551466</v>
       </c>
       <c r="F25">
-        <v>1.03484554572575</v>
+        <v>1.030286891118251</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047077831194456</v>
+        <v>1.045056292417451</v>
       </c>
       <c r="J25">
-        <v>1.037306161463522</v>
+        <v>1.028460161163702</v>
       </c>
       <c r="K25">
-        <v>1.043030584819461</v>
+        <v>1.036314839075733</v>
       </c>
       <c r="L25">
-        <v>1.038466584746688</v>
+        <v>1.032240193405544</v>
       </c>
       <c r="M25">
-        <v>1.046925981979862</v>
+        <v>1.042432555628683</v>
       </c>
       <c r="N25">
-        <v>1.03877925519348</v>
+        <v>1.012793632498513</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042154910185948</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01076092886922</v>
+        <v>1.01014042364548</v>
       </c>
       <c r="D2">
-        <v>1.028784013228869</v>
+        <v>1.027730180217406</v>
       </c>
       <c r="E2">
-        <v>1.025187484433465</v>
+        <v>1.024635125189723</v>
       </c>
       <c r="F2">
-        <v>1.035169826689331</v>
+        <v>1.034492475108088</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046443381167707</v>
+        <v>1.04604964850331</v>
       </c>
       <c r="J2">
-        <v>1.03262447802942</v>
+        <v>1.032022009541905</v>
       </c>
       <c r="K2">
-        <v>1.039856392967944</v>
+        <v>1.038816248310469</v>
       </c>
       <c r="L2">
-        <v>1.03630672505001</v>
+        <v>1.035761599273491</v>
       </c>
       <c r="M2">
-        <v>1.046160005363963</v>
+        <v>1.045491312824245</v>
       </c>
       <c r="N2">
-        <v>1.014254558813189</v>
+        <v>1.015328207204424</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045104924001415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044575701852436</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022256808431667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015477286525927</v>
+        <v>1.01452610641814</v>
       </c>
       <c r="D3">
-        <v>1.032105312703831</v>
+        <v>1.030695015494865</v>
       </c>
       <c r="E3">
-        <v>1.02889672065051</v>
+        <v>1.028055590885389</v>
       </c>
       <c r="F3">
-        <v>1.038626120460261</v>
+        <v>1.037672098620216</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047397665485007</v>
+        <v>1.046850824229852</v>
       </c>
       <c r="J3">
-        <v>1.035554736783543</v>
+        <v>1.034628458534792</v>
       </c>
       <c r="K3">
-        <v>1.042343241017704</v>
+        <v>1.040949652500962</v>
       </c>
       <c r="L3">
-        <v>1.039172745569458</v>
+        <v>1.038341651578836</v>
       </c>
       <c r="M3">
-        <v>1.048787522196962</v>
+        <v>1.047844622227389</v>
       </c>
       <c r="N3">
-        <v>1.0152810046978</v>
+        <v>1.016052329429473</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047184411287883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04643817564113</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02273462779351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018466887532604</v>
+        <v>1.017309157270872</v>
       </c>
       <c r="D4">
-        <v>1.034212670664726</v>
+        <v>1.032578531371675</v>
       </c>
       <c r="E4">
-        <v>1.031253851402045</v>
+        <v>1.030232053715646</v>
       </c>
       <c r="F4">
-        <v>1.040823476586441</v>
+        <v>1.039696129437729</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047991464925562</v>
+        <v>1.047348397987137</v>
       </c>
       <c r="J4">
-        <v>1.037409720955315</v>
+        <v>1.036280222600531</v>
       </c>
       <c r="K4">
-        <v>1.043914995614171</v>
+        <v>1.042299040882053</v>
       </c>
       <c r="L4">
-        <v>1.040989153893758</v>
+        <v>1.039978798835789</v>
       </c>
       <c r="M4">
-        <v>1.050452952707169</v>
+        <v>1.049337948065615</v>
       </c>
       <c r="N4">
-        <v>1.015930026638331</v>
+        <v>1.016510786437971</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048502474622532</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047620032338417</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.0230341453036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019709354343747</v>
+        <v>1.018466472328009</v>
       </c>
       <c r="D5">
-        <v>1.035088909245814</v>
+        <v>1.033362224807012</v>
       </c>
       <c r="E5">
-        <v>1.03223483584017</v>
+        <v>1.031138495867251</v>
       </c>
       <c r="F5">
-        <v>1.041738186863661</v>
+        <v>1.040539273288176</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04823553561326</v>
+        <v>1.047552668066104</v>
       </c>
       <c r="J5">
-        <v>1.038180017180317</v>
+        <v>1.036966527111501</v>
       </c>
       <c r="K5">
-        <v>1.044567052825718</v>
+        <v>1.042859067860417</v>
       </c>
       <c r="L5">
-        <v>1.041743929600361</v>
+        <v>1.040659534477237</v>
       </c>
       <c r="M5">
-        <v>1.051145029645027</v>
+        <v>1.049958889666673</v>
       </c>
       <c r="N5">
-        <v>1.016199347553933</v>
+        <v>1.016701165663534</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04905020092096</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04811146102751</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023157796030357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019917142711451</v>
+        <v>1.018660059351203</v>
       </c>
       <c r="D6">
-        <v>1.035235473490738</v>
+        <v>1.033493339630807</v>
       </c>
       <c r="E6">
-        <v>1.032398973344572</v>
+        <v>1.03129019813974</v>
       </c>
       <c r="F6">
-        <v>1.041891248075375</v>
+        <v>1.04068039257628</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048276192998267</v>
+        <v>1.047586680225159</v>
       </c>
       <c r="J6">
-        <v>1.038308802313332</v>
+        <v>1.037081292332998</v>
       </c>
       <c r="K6">
-        <v>1.044676032358545</v>
+        <v>1.042952678490735</v>
       </c>
       <c r="L6">
-        <v>1.041870149091925</v>
+        <v>1.040773398054814</v>
       </c>
       <c r="M6">
-        <v>1.05126076619033</v>
+        <v>1.05006275205922</v>
       </c>
       <c r="N6">
-        <v>1.016244363679915</v>
+        <v>1.01673299474619</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049141797561181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048193660286767</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023178425953917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018483545184294</v>
+        <v>1.017336267846673</v>
       </c>
       <c r="D7">
-        <v>1.034224416714591</v>
+        <v>1.032598020950809</v>
       </c>
       <c r="E7">
-        <v>1.031266998035621</v>
+        <v>1.030254239927663</v>
       </c>
       <c r="F7">
-        <v>1.040835734192718</v>
+        <v>1.039715838728612</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047994747927736</v>
+        <v>1.047355349616406</v>
       </c>
       <c r="J7">
-        <v>1.037420050789193</v>
+        <v>1.036300738650079</v>
       </c>
       <c r="K7">
-        <v>1.043923742335281</v>
+        <v>1.04231543826109</v>
       </c>
       <c r="L7">
-        <v>1.040999273628477</v>
+        <v>1.039997852659648</v>
       </c>
       <c r="M7">
-        <v>1.050462231661468</v>
+        <v>1.049354592581792</v>
       </c>
       <c r="N7">
-        <v>1.015933639049779</v>
+        <v>1.016542872753442</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048509818212331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047633205228418</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023038634364623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012368049431399</v>
+        <v>1.011670193806871</v>
       </c>
       <c r="D8">
-        <v>1.029915290168014</v>
+        <v>1.028767643920984</v>
       </c>
       <c r="E8">
-        <v>1.026450149662072</v>
+        <v>1.025830149652321</v>
       </c>
       <c r="F8">
-        <v>1.036346178844759</v>
+        <v>1.035600356883881</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04677085722375</v>
+        <v>1.046337973680207</v>
       </c>
       <c r="J8">
-        <v>1.03362346444387</v>
+        <v>1.032945200872894</v>
       </c>
       <c r="K8">
-        <v>1.040704731186277</v>
+        <v>1.039571544026061</v>
       </c>
       <c r="L8">
-        <v>1.037283370717742</v>
+        <v>1.036671243000647</v>
       </c>
       <c r="M8">
-        <v>1.047055335580969</v>
+        <v>1.046318760923297</v>
       </c>
       <c r="N8">
-        <v>1.014604651667198</v>
+        <v>1.015665212599117</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045813513006546</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04523056757556</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022429224123033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001090231690258</v>
+        <v>1.001208648165368</v>
       </c>
       <c r="D9">
-        <v>1.021988154006585</v>
+        <v>1.021711141006226</v>
       </c>
       <c r="E9">
-        <v>1.017616879487529</v>
+        <v>1.017707656283682</v>
       </c>
       <c r="F9">
-        <v>1.0281212749919</v>
+        <v>1.028054515423613</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044427650402107</v>
+        <v>1.044368419602933</v>
       </c>
       <c r="J9">
-        <v>1.026604549719459</v>
+        <v>1.026718798025335</v>
       </c>
       <c r="K9">
-        <v>1.034734284709232</v>
+        <v>1.034461524098761</v>
       </c>
       <c r="L9">
-        <v>1.030430457963552</v>
+        <v>1.030519826567965</v>
       </c>
       <c r="M9">
-        <v>1.040774004730237</v>
+        <v>1.040708254197642</v>
       </c>
       <c r="N9">
-        <v>1.012141929701067</v>
+        <v>1.013943239575769</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040842280167179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040790243051894</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021270092139688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9932967721524455</v>
+        <v>0.9940465607338413</v>
       </c>
       <c r="D10">
-        <v>1.016551357765272</v>
+        <v>1.01692549049083</v>
       </c>
       <c r="E10">
-        <v>1.011576612630076</v>
+        <v>1.012214238977013</v>
       </c>
       <c r="F10">
-        <v>1.022535581164724</v>
+        <v>1.022985305426133</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042775868085061</v>
+        <v>1.042996517154892</v>
       </c>
       <c r="J10">
-        <v>1.021778891708934</v>
+        <v>1.022498391920466</v>
       </c>
       <c r="K10">
-        <v>1.030628067339772</v>
+        <v>1.030995729655266</v>
       </c>
       <c r="L10">
-        <v>1.025739946966488</v>
+        <v>1.026366408760827</v>
       </c>
       <c r="M10">
-        <v>1.036509530375932</v>
+        <v>1.036951594747036</v>
       </c>
       <c r="N10">
-        <v>1.010454790653078</v>
+        <v>1.012894733891453</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037518726663955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037868570491099</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020480827562729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.990648097498219</v>
+        <v>0.9916428907059195</v>
       </c>
       <c r="D11">
-        <v>1.014904949423183</v>
+        <v>1.015514136629065</v>
       </c>
       <c r="E11">
-        <v>1.009753660032121</v>
+        <v>1.010598728362771</v>
       </c>
       <c r="F11">
-        <v>1.021110438295446</v>
+        <v>1.021753058066158</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042386547259151</v>
+        <v>1.042703891150803</v>
       </c>
       <c r="J11">
-        <v>1.020415168990188</v>
+        <v>1.021367515868365</v>
       </c>
       <c r="K11">
-        <v>1.029551149806923</v>
+        <v>1.030149291996173</v>
       </c>
       <c r="L11">
-        <v>1.024493951271626</v>
+        <v>1.025323498344026</v>
       </c>
       <c r="M11">
-        <v>1.03564492920755</v>
+        <v>1.036276081372451</v>
       </c>
       <c r="N11">
-        <v>1.010060371414858</v>
+        <v>1.012873375398024</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037271308711501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037770542535779</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020346727534867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9899843037244084</v>
+        <v>0.9910257701128252</v>
       </c>
       <c r="D12">
-        <v>1.014597657847225</v>
+        <v>1.01524828570094</v>
       </c>
       <c r="E12">
-        <v>1.009411266078839</v>
+        <v>1.010292455431453</v>
       </c>
       <c r="F12">
-        <v>1.020984858225495</v>
+        <v>1.021662109215651</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042384589470136</v>
+        <v>1.042714751190668</v>
       </c>
       <c r="J12">
-        <v>1.02021867880936</v>
+        <v>1.02121485219706</v>
       </c>
       <c r="K12">
-        <v>1.029450433514679</v>
+        <v>1.030089069447928</v>
       </c>
       <c r="L12">
-        <v>1.02436035524533</v>
+        <v>1.025225089539997</v>
       </c>
       <c r="M12">
-        <v>1.035720769886709</v>
+        <v>1.036385740926855</v>
       </c>
       <c r="N12">
-        <v>1.010061357111535</v>
+        <v>1.012982905779247</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037658066971417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038183872752256</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02037814712581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9908075286331127</v>
+        <v>0.9917277631149836</v>
       </c>
       <c r="D13">
-        <v>1.015302667351716</v>
+        <v>1.01583378033184</v>
       </c>
       <c r="E13">
-        <v>1.010188092723104</v>
+        <v>1.010960413796368</v>
       </c>
       <c r="F13">
-        <v>1.021860669569135</v>
+        <v>1.022439752579371</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042685606422634</v>
+        <v>1.042958473751196</v>
       </c>
       <c r="J13">
-        <v>1.02091202582083</v>
+        <v>1.021792473951023</v>
       </c>
       <c r="K13">
-        <v>1.030099379663607</v>
+        <v>1.030620752437048</v>
       </c>
       <c r="L13">
-        <v>1.025079286258746</v>
+        <v>1.025837260372676</v>
       </c>
       <c r="M13">
-        <v>1.036538035261195</v>
+        <v>1.037106675373435</v>
       </c>
       <c r="N13">
-        <v>1.0103676417903</v>
+        <v>1.01316198953201</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038581140769158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039030662688704</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020536815909476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9920534456817851</v>
+        <v>0.992814737517666</v>
       </c>
       <c r="D14">
-        <v>1.016251283202001</v>
+        <v>1.016627776887719</v>
       </c>
       <c r="E14">
-        <v>1.011235057146724</v>
+        <v>1.011867500108568</v>
       </c>
       <c r="F14">
-        <v>1.022924015536042</v>
+        <v>1.023375975647299</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043031627988873</v>
+        <v>1.043233808257259</v>
       </c>
       <c r="J14">
-        <v>1.021796720921712</v>
+        <v>1.022525603345494</v>
       </c>
       <c r="K14">
-        <v>1.030889672404879</v>
+        <v>1.031259352554679</v>
       </c>
       <c r="L14">
-        <v>1.025964857245068</v>
+        <v>1.026585710153946</v>
       </c>
       <c r="M14">
-        <v>1.037442610755891</v>
+        <v>1.03788653024476</v>
       </c>
       <c r="N14">
-        <v>1.0107186706327</v>
+        <v>1.013319514536639</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039469573541538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039820453872419</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02070513143719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.992682937155804</v>
+        <v>0.9933702732388943</v>
       </c>
       <c r="D15">
-        <v>1.01670647162139</v>
+        <v>1.017011334416086</v>
       </c>
       <c r="E15">
-        <v>1.01173884219753</v>
+        <v>1.012306911890049</v>
       </c>
       <c r="F15">
-        <v>1.023410817439239</v>
+        <v>1.023803933705246</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043183654597601</v>
+        <v>1.043353992307126</v>
       </c>
       <c r="J15">
-        <v>1.022210362064636</v>
+        <v>1.022868705567524</v>
       </c>
       <c r="K15">
-        <v>1.031249841801639</v>
+        <v>1.031549230953164</v>
       </c>
       <c r="L15">
-        <v>1.026372008221851</v>
+        <v>1.026929751314737</v>
       </c>
       <c r="M15">
-        <v>1.037834790870607</v>
+        <v>1.03822096911341</v>
       </c>
       <c r="N15">
-        <v>1.010872109779582</v>
+        <v>1.013377534400077</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.03981709469323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040122327513482</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020775623240347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9958260535407586</v>
+        <v>0.9961877738183798</v>
       </c>
       <c r="D16">
-        <v>1.018873804978544</v>
+        <v>1.018861974879362</v>
       </c>
       <c r="E16">
-        <v>1.01414796481834</v>
+        <v>1.014435774609287</v>
       </c>
       <c r="F16">
-        <v>1.025628194402363</v>
+        <v>1.025762537452149</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043838611927023</v>
+        <v>1.043872669159928</v>
       </c>
       <c r="J16">
-        <v>1.02412894030528</v>
+        <v>1.024476192049437</v>
       </c>
       <c r="K16">
-        <v>1.032874746051105</v>
+        <v>1.03286311884743</v>
       </c>
       <c r="L16">
-        <v>1.028230445355283</v>
+        <v>1.028513261172881</v>
       </c>
       <c r="M16">
-        <v>1.039514278189676</v>
+        <v>1.039646356546914</v>
       </c>
       <c r="N16">
-        <v>1.011529273870689</v>
+        <v>1.013601465829351</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041105848626288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.041210245544992</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021065404529422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9975833155882532</v>
+        <v>0.9977927919439815</v>
       </c>
       <c r="D17">
-        <v>1.020038509183206</v>
+        <v>1.019875763281065</v>
       </c>
       <c r="E17">
-        <v>1.015446894856414</v>
+        <v>1.015604952053557</v>
       </c>
       <c r="F17">
-        <v>1.026767534686213</v>
+        <v>1.026780129365684</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044156350526514</v>
+        <v>1.044127645928861</v>
       </c>
       <c r="J17">
-        <v>1.025134681240057</v>
+        <v>1.025336054942273</v>
       </c>
       <c r="K17">
-        <v>1.033704082117365</v>
+        <v>1.033544047702079</v>
       </c>
       <c r="L17">
-        <v>1.029189398386746</v>
+        <v>1.029344792490877</v>
       </c>
       <c r="M17">
-        <v>1.040321963718398</v>
+        <v>1.040334352126431</v>
       </c>
       <c r="N17">
-        <v>1.011848392426019</v>
+        <v>1.013721096606304</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041615287833187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.041625080812984</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021201121746246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9983066331894906</v>
+        <v>0.9984815056372308</v>
       </c>
       <c r="D18">
-        <v>1.020435825816801</v>
+        <v>1.020237460221878</v>
       </c>
       <c r="E18">
-        <v>1.015893708080308</v>
+        <v>1.016024552894104</v>
       </c>
       <c r="F18">
-        <v>1.027052806505588</v>
+        <v>1.027037680400626</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044208747860418</v>
+        <v>1.044168604700607</v>
       </c>
       <c r="J18">
-        <v>1.025433766878803</v>
+        <v>1.025602002858794</v>
       </c>
       <c r="K18">
-        <v>1.033910893514565</v>
+        <v>1.033715778717561</v>
       </c>
       <c r="L18">
-        <v>1.029443621320752</v>
+        <v>1.029572298008226</v>
       </c>
       <c r="M18">
-        <v>1.040420359115256</v>
+        <v>1.040405476757377</v>
       </c>
       <c r="N18">
-        <v>1.011900215992411</v>
+        <v>1.013716691499466</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041455521035967</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.041443754149519</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021208239994732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9981025778952964</v>
+        <v>0.9983369011651992</v>
       </c>
       <c r="D19">
-        <v>1.020147299182006</v>
+        <v>1.020007591082251</v>
       </c>
       <c r="E19">
-        <v>1.015575241534071</v>
+        <v>1.015760917402751</v>
       </c>
       <c r="F19">
-        <v>1.026569035753033</v>
+        <v>1.02660220034483</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044028223686529</v>
+        <v>1.044018326501373</v>
       </c>
       <c r="J19">
-        <v>1.025102412009373</v>
+        <v>1.025327890311444</v>
       </c>
       <c r="K19">
-        <v>1.033564366894449</v>
+        <v>1.033426937585646</v>
       </c>
       <c r="L19">
-        <v>1.029067303243943</v>
+        <v>1.02924991660984</v>
       </c>
       <c r="M19">
-        <v>1.039882216691585</v>
+        <v>1.03991484909447</v>
       </c>
       <c r="N19">
-        <v>1.01171839205913</v>
+        <v>1.013583635884515</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040704681366894</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.040730490928278</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021100460164106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9953233764730887</v>
+        <v>0.9958737326075057</v>
       </c>
       <c r="D20">
-        <v>1.017964669360948</v>
+        <v>1.018141586020837</v>
       </c>
       <c r="E20">
-        <v>1.013145680611839</v>
+        <v>1.013610460315595</v>
       </c>
       <c r="F20">
-        <v>1.023987788365722</v>
+        <v>1.024277308478714</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043210209241537</v>
+        <v>1.043344953998907</v>
       </c>
       <c r="J20">
-        <v>1.023035772091101</v>
+        <v>1.023564646843193</v>
       </c>
       <c r="K20">
-        <v>1.031698819541635</v>
+        <v>1.031872765960357</v>
       </c>
       <c r="L20">
-        <v>1.026961251533635</v>
+        <v>1.027418134857766</v>
       </c>
       <c r="M20">
-        <v>1.037621559906103</v>
+        <v>1.037906293274828</v>
       </c>
       <c r="N20">
-        <v>1.010894815760023</v>
+        <v>1.013089023417697</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038388220783961</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.038613557604926</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020679242500341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9892992618432591</v>
+        <v>0.990521323647631</v>
       </c>
       <c r="D21">
-        <v>1.013733072303084</v>
+        <v>1.01456166060544</v>
       </c>
       <c r="E21">
-        <v>1.008448767320518</v>
+        <v>1.00949736717438</v>
       </c>
       <c r="F21">
-        <v>1.019595940709069</v>
+        <v>1.020421310808427</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041881138938931</v>
+        <v>1.042303194516353</v>
       </c>
       <c r="J21">
-        <v>1.019251290931039</v>
+        <v>1.020420760502797</v>
       </c>
       <c r="K21">
-        <v>1.028458856075404</v>
+        <v>1.029272311461646</v>
       </c>
       <c r="L21">
-        <v>1.023271823811599</v>
+        <v>1.024301015614278</v>
       </c>
       <c r="M21">
-        <v>1.034215335168805</v>
+        <v>1.03502585542055</v>
       </c>
       <c r="N21">
-        <v>1.009555951627527</v>
+        <v>1.012639578964128</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035651516633259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.036292993131717</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020085575303714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9854702390900616</v>
+        <v>0.9871219358420289</v>
       </c>
       <c r="D22">
-        <v>1.01106053676128</v>
+        <v>1.012306078084023</v>
       </c>
       <c r="E22">
-        <v>1.005486032645865</v>
+        <v>1.006908006504008</v>
       </c>
       <c r="F22">
-        <v>1.016843443118694</v>
+        <v>1.018011815270565</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041036743961083</v>
+        <v>1.041642721615134</v>
       </c>
       <c r="J22">
-        <v>1.016861675104777</v>
+        <v>1.01843795418714</v>
       </c>
       <c r="K22">
-        <v>1.026416021123439</v>
+        <v>1.027637628538151</v>
       </c>
       <c r="L22">
-        <v>1.020949587969147</v>
+        <v>1.022343845443268</v>
       </c>
       <c r="M22">
-        <v>1.032088453324885</v>
+        <v>1.033234704581105</v>
       </c>
       <c r="N22">
-        <v>1.008714610517428</v>
+        <v>1.012355314367446</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033968218828757</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.034875407579768</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019713735859608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9875089523546606</v>
+        <v>0.9889114470462718</v>
       </c>
       <c r="D23">
-        <v>1.012482961257769</v>
+        <v>1.013489717208557</v>
       </c>
       <c r="E23">
-        <v>1.007062618783524</v>
+        <v>1.008267663504684</v>
       </c>
       <c r="F23">
-        <v>1.018307999034637</v>
+        <v>1.019278326948522</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041487292313003</v>
+        <v>1.041987246542774</v>
       </c>
       <c r="J23">
-        <v>1.018134055348961</v>
+        <v>1.01947447661175</v>
       </c>
       <c r="K23">
-        <v>1.027503938420107</v>
+        <v>1.028491859310633</v>
       </c>
       <c r="L23">
-        <v>1.022185849650761</v>
+        <v>1.023368037199873</v>
       </c>
       <c r="M23">
-        <v>1.033220669567799</v>
+        <v>1.03417311261094</v>
       </c>
       <c r="N23">
-        <v>1.009162642762198</v>
+        <v>1.012460689178963</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034864299720095</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.035618100082082</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01990650009919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9953435165046509</v>
+        <v>0.9958965796444109</v>
       </c>
       <c r="D24">
-        <v>1.017960195867011</v>
+        <v>1.01813982210971</v>
       </c>
       <c r="E24">
-        <v>1.013140026365871</v>
+        <v>1.013607559527004</v>
       </c>
       <c r="F24">
-        <v>1.023956834103142</v>
+        <v>1.024248643445181</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043197390996338</v>
+        <v>1.043333868065238</v>
       </c>
       <c r="J24">
-        <v>1.023021999759186</v>
+        <v>1.023553507529748</v>
       </c>
       <c r="K24">
-        <v>1.031679084317057</v>
+        <v>1.031855698671911</v>
       </c>
       <c r="L24">
-        <v>1.026940252018101</v>
+        <v>1.027399852135391</v>
       </c>
       <c r="M24">
-        <v>1.037575908856795</v>
+        <v>1.037862899422247</v>
       </c>
       <c r="N24">
-        <v>1.010882652901064</v>
+        <v>1.013076822613067</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03831119845855</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.038538332905365</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020670186807769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004068962149889</v>
+        <v>1.003954002040276</v>
       </c>
       <c r="D25">
-        <v>1.024079165566688</v>
+        <v>1.023558599711608</v>
       </c>
       <c r="E25">
-        <v>1.019943786551466</v>
+        <v>1.019831733455426</v>
       </c>
       <c r="F25">
-        <v>1.030286891118251</v>
+        <v>1.030028006991617</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045056292417451</v>
+        <v>1.044892160618324</v>
       </c>
       <c r="J25">
-        <v>1.028460161163702</v>
+        <v>1.028349027045299</v>
       </c>
       <c r="K25">
-        <v>1.036314839075733</v>
+        <v>1.035801884133363</v>
       </c>
       <c r="L25">
-        <v>1.032240193405544</v>
+        <v>1.03212979465971</v>
       </c>
       <c r="M25">
-        <v>1.042432555628683</v>
+        <v>1.042177397733352</v>
       </c>
       <c r="N25">
-        <v>1.012793632498513</v>
+        <v>1.014363201217084</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042154910185948</v>
+        <v>1.041952970253756</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021575496469385</v>
       </c>
     </row>
   </sheetData>
